--- a/Key Parameters.xlsx
+++ b/Key Parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\Defiance-Sim-files-and-Key-Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D044076-CF8C-4D9C-B818-6522CA9ACD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E02D8D7-87D4-4590-BDDD-A08DD91121A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{8D469BC5-07B5-4245-867D-26505EAC8ED5}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
   <si>
     <t>Defiance Key Parameters</t>
   </si>
@@ -282,6 +281,12 @@
   </si>
   <si>
     <t>Formula Parameters</t>
+  </si>
+  <si>
+    <t>[3x0/90,±45,G10,±45,3x0/90]</t>
+  </si>
+  <si>
+    <t>[±45,±45,±45,±45,0/90]</t>
   </si>
 </sst>
 </file>
@@ -394,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -637,17 +642,6 @@
       <bottom style="dashed">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -767,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -843,37 +837,139 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -892,15 +988,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,102 +998,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1325,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CC82B5-FD5F-4B45-BDC4-4FDF6AB28F2F}">
   <dimension ref="B1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1349,62 +1340,62 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:24" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="52"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="86"/>
     </row>
     <row r="3" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="55"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="89"/>
     </row>
     <row r="4" spans="2:24" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="76"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="64"/>
     </row>
     <row r="5" spans="2:24" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F5" s="12"/>
@@ -1413,43 +1404,43 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="2:24" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="86"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="79" t="s">
+      <c r="K6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81"/>
-      <c r="O6" s="82" t="s">
+      <c r="L6" s="68"/>
+      <c r="M6" s="69"/>
+      <c r="O6" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="84"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="72"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="W6" s="7"/>
       <c r="X6" s="6"/>
     </row>
     <row r="7" spans="2:24" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
       <c r="H7" s="8" t="s">
         <v>53</v>
       </c>
@@ -1514,13 +1505,12 @@
       <c r="C9" s="57"/>
       <c r="D9" s="58"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="48">
-        <f>CONVERT(I9,"in","cm")</f>
-        <v>545.74439999999993</v>
+      <c r="G9" s="55"/>
+      <c r="H9" s="47">
+        <v>544</v>
       </c>
       <c r="I9" s="36">
         <v>214.86</v>
@@ -1528,8 +1518,8 @@
       <c r="K9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="62"/>
-      <c r="M9" s="63"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
       <c r="O9" s="20" t="s">
         <v>58</v>
       </c>
@@ -1550,11 +1540,11 @@
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="48">
+      <c r="G10" s="55"/>
+      <c r="H10" s="47">
         <f>CONVERT(I10,"in","cm")</f>
         <v>13.969999999999999</v>
       </c>
@@ -1564,10 +1554,10 @@
       <c r="K10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="77" t="s">
+      <c r="L10" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="78"/>
+      <c r="M10" s="66"/>
       <c r="O10" s="20" t="s">
         <v>59</v>
       </c>
@@ -1588,22 +1578,22 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="65"/>
-      <c r="H11" s="48">
+      <c r="G11" s="55"/>
+      <c r="H11" s="47">
         <f>CONVERT(I11,"in","cm")</f>
-        <v>6.9849999999999994</v>
+        <v>2.54</v>
       </c>
       <c r="I11" s="36">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="K11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="62"/>
-      <c r="M11" s="63"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50"/>
       <c r="O11" s="20" t="s">
         <v>60</v>
       </c>
@@ -1617,16 +1607,16 @@
     </row>
     <row r="12" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
       <c r="E12" s="16"/>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="48">
+      <c r="G12" s="55"/>
+      <c r="H12" s="47">
         <f>CONVERT(I12,"in","cm")</f>
-        <v>12.5222</v>
+        <v>12.763500000000001</v>
       </c>
       <c r="I12" s="36">
-        <v>4.93</v>
+        <v>5.0250000000000004</v>
       </c>
       <c r="K12" s="20" t="s">
         <v>33</v>
@@ -1646,12 +1636,12 @@
     </row>
     <row r="13" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
       <c r="E13" s="18"/>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
       <c r="K13" s="56" t="s">
         <v>63</v>
       </c>
@@ -1675,24 +1665,24 @@
       <c r="C14" s="57"/>
       <c r="D14" s="58"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="65"/>
+      <c r="G14" s="55"/>
       <c r="H14" s="35">
         <f>CONVERT(I14,"in","cm")</f>
         <v>55.879999999999995</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="48">
         <v>22</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="62" t="s">
+      <c r="L14" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="63"/>
+      <c r="M14" s="50"/>
       <c r="O14" s="20" t="s">
         <v>58</v>
       </c>
@@ -1713,21 +1703,21 @@
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="91" t="s">
+      <c r="G15" s="55"/>
+      <c r="H15" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="92"/>
+      <c r="I15" s="52"/>
       <c r="K15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="62" t="s">
+      <c r="L15" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="63"/>
+      <c r="M15" s="50"/>
       <c r="O15" s="20" t="s">
         <v>59</v>
       </c>
@@ -1748,21 +1738,21 @@
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="16"/>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="93" t="s">
+      <c r="G16" s="55"/>
+      <c r="H16" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="92"/>
+      <c r="I16" s="52"/>
       <c r="K16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="62" t="s">
+      <c r="L16" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="M16" s="63"/>
+      <c r="M16" s="50"/>
       <c r="O16" s="29" t="s">
         <v>60</v>
       </c>
@@ -1784,12 +1774,12 @@
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="69"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="83"/>
       <c r="K17" s="20" t="s">
         <v>34</v>
       </c>
@@ -1813,13 +1803,13 @@
       <c r="F18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="44">
-        <f>CONVERT(I18,"in","cm")</f>
-        <v>514.98500000000001</v>
+      <c r="G18" s="39"/>
+      <c r="H18" s="43">
+        <v>495</v>
       </c>
       <c r="I18" s="36">
-        <v>202.75</v>
+        <f>CONVERT(H18,"cm","in")</f>
+        <v>194.88188976377955</v>
       </c>
       <c r="K18" s="20" t="s">
         <v>37</v>
@@ -1853,11 +1843,11 @@
       <c r="F19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="66">
+      <c r="G19" s="39"/>
+      <c r="H19" s="80">
         <v>3</v>
       </c>
-      <c r="I19" s="67"/>
+      <c r="I19" s="81"/>
       <c r="K19" s="20" t="s">
         <v>35</v>
       </c>
@@ -1885,13 +1875,13 @@
       <c r="F20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="44">
-        <v>40.799999999999997</v>
+      <c r="G20" s="39"/>
+      <c r="H20" s="43">
+        <v>40</v>
       </c>
       <c r="I20" s="36">
         <f>H20/2.54</f>
-        <v>16.062992125984252</v>
+        <v>15.748031496062993</v>
       </c>
       <c r="K20" s="56" t="s">
         <v>64</v>
@@ -1920,19 +1910,19 @@
       <c r="F21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="44">
-        <v>20.97</v>
+      <c r="G21" s="39"/>
+      <c r="H21" s="43">
+        <v>20</v>
       </c>
       <c r="I21" s="36">
         <f>H21/2.54</f>
-        <v>8.2559055118110223</v>
+        <v>7.8740157480314963</v>
       </c>
       <c r="K21" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="62"/>
-      <c r="M21" s="63"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="50"/>
       <c r="P21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
@@ -1955,21 +1945,21 @@
       <c r="F22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="44">
-        <v>11.4</v>
+      <c r="G22" s="39"/>
+      <c r="H22" s="43">
+        <v>11.5</v>
       </c>
       <c r="I22" s="36">
         <f>H22/2.54</f>
-        <v>4.4881889763779528</v>
+        <v>4.5275590551181102</v>
       </c>
       <c r="K22" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="62" t="s">
+      <c r="L22" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="M22" s="63"/>
+      <c r="M22" s="50"/>
       <c r="P22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -1992,22 +1982,22 @@
       <c r="F23" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="44">
-        <v>9.43</v>
+      <c r="G23" s="39"/>
+      <c r="H23" s="43">
+        <v>10</v>
       </c>
       <c r="I23" s="37">
         <f>H23/2.54</f>
-        <v>3.71259842519685</v>
+        <v>3.9370078740157481</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="62" t="s">
+      <c r="L23" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="63"/>
+      <c r="M23" s="50"/>
       <c r="P23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
@@ -2027,18 +2017,18 @@
         <v>4.8443951700000003</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="45">
-        <f t="shared" ref="H24:H29" si="0">CONVERT(I24,"in","cm")</f>
-        <v>0.3175</v>
+      <c r="H24" s="44">
+        <v>0.72209999999999996</v>
       </c>
       <c r="I24" s="36">
-        <v>0.125</v>
+        <f>CONVERT(H24,"cm","in")</f>
+        <v>0.28429133858267713</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="20" t="s">
@@ -2067,12 +2057,12 @@
       <c r="D25" s="25">
         <v>5.2774525600000004</v>
       </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="42" t="s">
+      <c r="F25" s="59"/>
+      <c r="G25" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="44">
-        <f t="shared" si="0"/>
+      <c r="H25" s="43">
+        <f t="shared" ref="H24:H29" si="0">CONVERT(I25,"in","cm")</f>
         <v>1.27</v>
       </c>
       <c r="I25" s="36">
@@ -2098,11 +2088,11 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="F26" s="72"/>
-      <c r="G26" s="42" t="s">
+      <c r="F26" s="60"/>
+      <c r="G26" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H26" s="45">
         <f t="shared" si="0"/>
         <v>1.27</v>
       </c>
@@ -2126,18 +2116,18 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F27" s="71" t="s">
+      <c r="F27" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="45">
-        <f t="shared" si="0"/>
-        <v>0.3175</v>
-      </c>
-      <c r="I27" s="38">
-        <v>0.125</v>
+      <c r="H27" s="44">
+        <v>0.72209999999999996</v>
+      </c>
+      <c r="I27" s="36">
+        <f>CONVERT(H27,"cm","in")</f>
+        <v>0.28429133858267713</v>
       </c>
       <c r="K27" s="56" t="s">
         <v>36</v>
@@ -2155,11 +2145,11 @@
       <c r="X27" s="6"/>
     </row>
     <row r="28" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="F28" s="71"/>
-      <c r="G28" s="42" t="s">
+      <c r="F28" s="59"/>
+      <c r="G28" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="43">
         <f t="shared" si="0"/>
         <v>1.27</v>
       </c>
@@ -2169,10 +2159,10 @@
       <c r="K28" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="62" t="s">
+      <c r="L28" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="M28" s="63"/>
+      <c r="M28" s="50"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -2184,24 +2174,24 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F29" s="73"/>
-      <c r="G29" s="43" t="s">
+      <c r="F29" s="61"/>
+      <c r="G29" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="47">
+      <c r="H29" s="46">
         <f t="shared" si="0"/>
         <v>1.27</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="38">
         <v>0.5</v>
       </c>
       <c r="K29" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L29" s="62" t="s">
+      <c r="L29" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="M29" s="63"/>
+      <c r="M29" s="50"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -2217,10 +2207,10 @@
       <c r="K30" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="62" t="s">
+      <c r="L30" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="M30" s="63"/>
+      <c r="M30" s="50"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -2307,8 +2297,8 @@
       <c r="K35" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L35" s="62"/>
-      <c r="M35" s="63"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="50"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
@@ -2323,8 +2313,8 @@
       <c r="K36" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L36" s="62"/>
-      <c r="M36" s="63"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="50"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
@@ -2339,8 +2329,10 @@
       <c r="K37" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="62"/>
-      <c r="M37" s="63"/>
+      <c r="L37" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="M37" s="50"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
@@ -2443,29 +2435,31 @@
       <c r="K43" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="L43" s="62"/>
-      <c r="M43" s="63"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="50"/>
     </row>
     <row r="44" spans="11:24" ht="18.5" x14ac:dyDescent="0.45">
       <c r="K44" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="62"/>
-      <c r="M44" s="63"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="50"/>
     </row>
     <row r="45" spans="11:24" ht="18.5" x14ac:dyDescent="0.45">
       <c r="K45" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L45" s="62"/>
-      <c r="M45" s="63"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="50"/>
     </row>
     <row r="46" spans="11:24" ht="18.5" x14ac:dyDescent="0.45">
       <c r="K46" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="L46" s="62"/>
-      <c r="M46" s="63"/>
+      <c r="L46" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="M46" s="50"/>
     </row>
     <row r="47" spans="11:24" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K47" s="29" t="s">
@@ -2477,6 +2471,43 @@
     <row r="48" spans="11:24" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
@@ -2493,43 +2524,6 @@
     <mergeCell ref="K34:M34"/>
     <mergeCell ref="K42:M42"/>
     <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="B2:Q3"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="C10">
     <cfRule type="containsBlanks" priority="1">
